--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPM.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>50.97867266979836</v>
+        <v>39.42036321020625</v>
       </c>
       <c r="C2">
-        <v>47.85392410824073</v>
+        <v>39.2783745506574</v>
       </c>
       <c r="D2">
-        <v>50.95786523256868</v>
+        <v>41.62977214893819</v>
       </c>
       <c r="E2">
-        <v>49.89975282501871</v>
+        <v>42.55154529513415</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>97.6948737850938</v>
+        <v>50.38248768211463</v>
       </c>
       <c r="C3">
-        <v>97.58822442248547</v>
+        <v>50.31006197060847</v>
       </c>
       <c r="D3">
-        <v>97.37108209691119</v>
+        <v>50.2463590208683</v>
       </c>
       <c r="E3">
-        <v>98.0898241891741</v>
+        <v>50.28366705008921</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.98054412710566</v>
+        <v>98.78855299310007</v>
       </c>
       <c r="C4">
-        <v>99.98637628931087</v>
+        <v>98.72121748546154</v>
       </c>
       <c r="D4">
-        <v>99.98070421484468</v>
+        <v>98.80617458215927</v>
       </c>
       <c r="E4">
-        <v>99.98181705846717</v>
+        <v>98.89710136385391</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>99.98602168643586</v>
+        <v>98.96221427295416</v>
       </c>
       <c r="C5">
-        <v>99.98011294351464</v>
+        <v>98.96041453209654</v>
       </c>
       <c r="D5">
-        <v>99.99647158033818</v>
+        <v>98.892789947442</v>
       </c>
       <c r="E5">
-        <v>99.98833347551059</v>
+        <v>98.90607321957347</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>99.96630346288987</v>
+        <v>98.55406822997308</v>
       </c>
       <c r="C6">
-        <v>99.95168159467231</v>
+        <v>98.48081443726426</v>
       </c>
       <c r="D6">
-        <v>99.9684219934074</v>
+        <v>98.49698157629641</v>
       </c>
       <c r="E6">
-        <v>99.96716271039396</v>
+        <v>98.47964947405534</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.71225738184442</v>
+        <v>97.59537080693012</v>
       </c>
       <c r="C7">
-        <v>99.79007546794126</v>
+        <v>97.54753994293857</v>
       </c>
       <c r="D7">
-        <v>99.77678548725919</v>
+        <v>97.64033857574367</v>
       </c>
       <c r="E7">
-        <v>99.81068799906051</v>
+        <v>97.57654125726216</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>99.50572531818921</v>
+        <v>96.334275508866</v>
       </c>
       <c r="C8">
-        <v>99.52144388038779</v>
+        <v>96.08004943890383</v>
       </c>
       <c r="D8">
-        <v>99.52721857569074</v>
+        <v>96.27314898098837</v>
       </c>
       <c r="E8">
-        <v>99.45403712779549</v>
+        <v>96.15330927021672</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.59537080693012</v>
+        <v>97.98222855450359</v>
       </c>
       <c r="C7">
-        <v>97.54753994293857</v>
+        <v>98.01050164382112</v>
       </c>
       <c r="D7">
-        <v>97.64033857574367</v>
+        <v>98.10180469708054</v>
       </c>
       <c r="E7">
-        <v>97.57654125726216</v>
+        <v>98.05001601071173</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.59537080693012</v>
+      </c>
+      <c r="C8">
+        <v>97.54753994293857</v>
+      </c>
+      <c r="D8">
+        <v>97.64033857574367</v>
+      </c>
+      <c r="E8">
+        <v>97.57654125726216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>96.334275508866</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>96.08004943890383</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>96.27314898098837</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>96.15330927021672</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPM.xlsx
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.98222855450359</v>
+        <v>98.04528151073291</v>
       </c>
       <c r="C7">
-        <v>98.01050164382112</v>
+        <v>98.03921256460907</v>
       </c>
       <c r="D7">
-        <v>98.10180469708054</v>
+        <v>98.07170447330606</v>
       </c>
       <c r="E7">
-        <v>98.05001601071173</v>
+        <v>98.01109088892491</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.59537080693012</v>
+        <v>97.65581094026977</v>
       </c>
       <c r="C8">
-        <v>97.54753994293857</v>
+        <v>97.53038799035613</v>
       </c>
       <c r="D8">
-        <v>97.64033857574367</v>
+        <v>97.66796705025925</v>
       </c>
       <c r="E8">
-        <v>97.57654125726216</v>
+        <v>97.58771602536946</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>96.334275508866</v>
+        <v>96.24429554855158</v>
       </c>
       <c r="C9">
-        <v>96.08004943890383</v>
+        <v>96.3317856062</v>
       </c>
       <c r="D9">
-        <v>96.27314898098837</v>
+        <v>96.27242821750166</v>
       </c>
       <c r="E9">
-        <v>96.15330927021672</v>
+        <v>96.28221152061533</v>
       </c>
     </row>
   </sheetData>
